--- a/Development/SOFTestAutomation/src/test/resources/testDataExcelFiles/BasicDefinitionsTestData.xlsx
+++ b/Development/SOFTestAutomation/src/test/resources/testDataExcelFiles/BasicDefinitionsTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Configure CSP OverDraft Fees" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="322">
   <si>
     <t>Value is less than allowable minimum of '0'</t>
   </si>
@@ -73,171 +73,18 @@
     <t>FAWRYRTL</t>
   </si>
   <si>
-    <t>Bplus Factor</t>
-  </si>
-  <si>
-    <t>Bplus Sat</t>
-  </si>
-  <si>
-    <t>C  Sat</t>
-  </si>
-  <si>
-    <t>B  Sat</t>
-  </si>
-  <si>
-    <t>Aplus  Sat</t>
-  </si>
-  <si>
-    <t>A  Sat</t>
-  </si>
-  <si>
-    <t>Cplus  Sat</t>
-  </si>
-  <si>
-    <t>B Fact</t>
-  </si>
-  <si>
-    <t>Bplus Sun</t>
-  </si>
-  <si>
-    <t>Bplus Mon</t>
-  </si>
-  <si>
-    <t>Bplus Tue</t>
-  </si>
-  <si>
-    <t>Bplus Wed</t>
-  </si>
-  <si>
-    <t>Bplus Thu</t>
-  </si>
-  <si>
-    <t>Bplus Fri</t>
-  </si>
-  <si>
-    <t>C Sun</t>
-  </si>
-  <si>
-    <t>C Mon</t>
-  </si>
-  <si>
-    <t>C Tue</t>
-  </si>
-  <si>
-    <t>C Wed</t>
-  </si>
-  <si>
-    <t>C Thu</t>
-  </si>
-  <si>
-    <t>C Fri</t>
-  </si>
-  <si>
-    <t>B Sun</t>
-  </si>
-  <si>
-    <t>B Mon</t>
-  </si>
-  <si>
-    <t>B Tue</t>
-  </si>
-  <si>
-    <t>B Wed</t>
-  </si>
-  <si>
-    <t>B Thu</t>
-  </si>
-  <si>
-    <t>B Fri</t>
-  </si>
-  <si>
-    <t>Aplus Sun</t>
-  </si>
-  <si>
-    <t>Aplus Mon</t>
-  </si>
-  <si>
-    <t>Aplus Tue</t>
-  </si>
-  <si>
-    <t>Aplus Wed</t>
-  </si>
-  <si>
-    <t>Aplus Thu</t>
-  </si>
-  <si>
-    <t>Aplus Fri</t>
-  </si>
-  <si>
-    <t>A Factor</t>
-  </si>
-  <si>
-    <t>A Sun</t>
-  </si>
-  <si>
-    <t>A Mon</t>
-  </si>
-  <si>
-    <t>A Tue</t>
-  </si>
-  <si>
-    <t>A Wed</t>
-  </si>
-  <si>
-    <t>A Thu</t>
-  </si>
-  <si>
-    <t>A Fri</t>
-  </si>
-  <si>
-    <t>Cplus Factor</t>
-  </si>
-  <si>
-    <t>Cplus Sun</t>
-  </si>
-  <si>
-    <t>Cplus Mon</t>
-  </si>
-  <si>
-    <t>Cplus Tue</t>
-  </si>
-  <si>
-    <t>Cplus Wed</t>
-  </si>
-  <si>
-    <t>Cplus Thu</t>
-  </si>
-  <si>
-    <t>Cplus Fri</t>
-  </si>
-  <si>
-    <t>Aplus Fact</t>
-  </si>
-  <si>
-    <t>C Fact</t>
-  </si>
-  <si>
     <t>Class Name</t>
   </si>
   <si>
-    <t>CLASS B+ ACCOUNT</t>
-  </si>
-  <si>
     <t>CLASS C ACCOUNT</t>
   </si>
   <si>
     <t>CLASS B ACCOUNT</t>
   </si>
   <si>
-    <t>CLASS A+ ACCOUNT</t>
-  </si>
-  <si>
     <t>CLASS A ACCOUNT</t>
   </si>
   <si>
-    <t>CLASS C+ ACCOUNT</t>
-  </si>
-  <si>
     <t>Reset</t>
   </si>
   <si>
@@ -274,9 +121,6 @@
     <t>Save</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Account Number</t>
   </si>
   <si>
@@ -290,12 +134,6 @@
   </si>
   <si>
     <t>Finance Program Code</t>
-  </si>
-  <si>
-    <t>test_111</t>
-  </si>
-  <si>
-    <t>Coca Facility</t>
   </si>
   <si>
     <t>No Results Found</t>
@@ -1133,13 +971,64 @@
   </si>
   <si>
     <t>Finance program</t>
+  </si>
+  <si>
+    <t>saveCommissions</t>
+  </si>
+  <si>
+    <t>SaveOneSynchSameBothDebitCredit</t>
+  </si>
+  <si>
+    <t>CashU</t>
+  </si>
+  <si>
+    <t>Fact</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>CSP's Classes Factors Updated Successfuly</t>
+  </si>
+  <si>
+    <t>106Test</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>V Disable V</t>
+  </si>
+  <si>
+    <t>Fawry Collection center - 229</t>
+  </si>
+  <si>
+    <t>TERMINATED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1207,6 +1096,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1243,10 +1140,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1317,8 +1215,10 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1621,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I2"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,9 +1577,36 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>-67</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1705,126 +1632,126 @@
   <sheetData>
     <row r="1" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="T1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>199</v>
-      </c>
       <c r="V1" s="22" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="W1" s="22" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="X1" s="22" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="Y1" s="22" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="Z1" s="22" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="AA1" s="22" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="AB1" s="22" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="AC1" s="22" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="AD1" s="22" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AE1" s="22" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="AF1" s="22" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="AG1" s="22" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1839,36 +1766,36 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="T2" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="U2" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="AF2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="AG2" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="H3">
         <v>66</v>
@@ -1877,7 +1804,7 @@
         <v>-56</v>
       </c>
       <c r="AF3" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="AG3" t="s">
         <v>0</v>
@@ -1885,16 +1812,16 @@
     </row>
     <row r="4" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="H4">
         <v>66</v>
@@ -1903,56 +1830,56 @@
         <v>-56</v>
       </c>
       <c r="AF4" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="AG4" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="AF5" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -1964,51 +1891,51 @@
         <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="T6" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="U6" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="AA6">
         <v>1255</v>
       </c>
       <c r="AB6" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="AC6" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="AD6" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="AE6">
         <v>123</v>
       </c>
       <c r="AF6" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="AF7" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="AG7" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2064,140 +1991,140 @@
   <sheetData>
     <row r="1" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="T1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>199</v>
-      </c>
       <c r="V1" s="22" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="W1" s="22" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="X1" s="22" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="Y1" s="22" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="Z1" s="22" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="AA1" s="22" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="AB1" s="22" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="AC1" s="22" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="AD1" s="22" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AE1" s="22" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="AF1" s="22" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="AG1" s="22" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="J2">
         <v>5.5</v>
       </c>
       <c r="AF2" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="AG2" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="I3">
         <v>2222</v>
@@ -2209,64 +2136,64 @@
         <v>8</v>
       </c>
       <c r="AF3" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="AG3" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="AF4" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="AF5" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="AF6" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="AG6" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2279,7 +2206,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,93 +2220,93 @@
   <sheetData>
     <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="E2">
         <v>282852</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>306</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="E3">
         <v>282852</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2388,10 +2315,10 @@
         <v>282852</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2404,7 +2331,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,89 +2345,92 @@
   <sheetData>
     <row r="1" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2">
-        <v>282852</v>
+        <v>177</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1234543735</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://10.96.0.12:1727/POSAdminTool/AdminTool/SearchCSP_BTC_POOL_ACCOUNT.faces"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2508,127 +2438,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2">
-        <v>282852</v>
+        <v>196</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1234543735</v>
+      </c>
+      <c r="D2">
+        <v>1234543736</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>282852</v>
+      <c r="C3" s="34">
+        <v>1234543735</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4">
-        <v>282852</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1234543735</v>
       </c>
       <c r="D4">
         <v>14117301</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5">
-        <v>14117301</v>
+        <v>85</v>
+      </c>
+      <c r="C5" s="34">
+        <v>1234543735</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://10.96.0.12:1727/POSAdminTool/AdminTool/SearchCSP_BTC_POOL_ACCOUNT.faces"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://10.96.0.12:1727/POSAdminTool/AdminTool/SearchCSP_BTC_POOL_ACCOUNT.faces"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://10.96.0.12:1727/POSAdminTool/AdminTool/SearchCSP_BTC_POOL_ACCOUNT.faces"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://10.96.0.12:1727/POSAdminTool/AdminTool/SearchCSP_BTC_POOL_ACCOUNT.faces"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2651,84 +2592,84 @@
   <sheetData>
     <row r="1" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2765,129 +2706,129 @@
   <sheetData>
     <row r="1" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="K2" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="N2" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="O2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="O3" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="O4" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="O5" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2916,102 +2857,102 @@
   <sheetData>
     <row r="1" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3039,87 +2980,87 @@
   <sheetData>
     <row r="1" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3147,108 +3088,108 @@
   <sheetData>
     <row r="1" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3259,374 +3200,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BG5"/>
+  <dimension ref="B1:AF5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>308</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>27</v>
+        <v>311</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>29</v>
+        <v>313</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>32</v>
+        <v>310</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>33</v>
+        <v>311</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>34</v>
+        <v>312</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>35</v>
+        <v>313</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>37</v>
+        <v>315</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>1.25</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="M2">
-        <v>1.25</v>
+        <v>9</v>
       </c>
       <c r="N2">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>1.25</v>
+        <v>11</v>
       </c>
       <c r="P2">
-        <v>1.25</v>
+        <v>12</v>
       </c>
       <c r="Q2">
-        <v>1.25</v>
+        <v>13</v>
       </c>
       <c r="R2">
-        <v>1.25</v>
+        <v>14</v>
       </c>
       <c r="S2">
-        <v>1.25</v>
+        <v>15</v>
       </c>
       <c r="T2">
-        <v>1.25</v>
+        <v>16</v>
       </c>
       <c r="U2" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="V2">
-        <v>1.25</v>
+        <v>17</v>
       </c>
       <c r="W2">
-        <v>1.25</v>
+        <v>18</v>
       </c>
       <c r="X2">
-        <v>1.25</v>
+        <v>19</v>
       </c>
       <c r="Y2">
-        <v>1.25</v>
+        <v>20</v>
       </c>
       <c r="Z2">
-        <v>1.25</v>
+        <v>21</v>
       </c>
       <c r="AA2">
-        <v>1.25</v>
+        <v>22</v>
       </c>
       <c r="AB2">
-        <v>1.25</v>
+        <v>23</v>
       </c>
       <c r="AC2">
-        <v>1.25</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2">
-        <v>1.25</v>
-      </c>
-      <c r="AF2">
-        <v>1.25</v>
-      </c>
-      <c r="AG2">
-        <v>1.25</v>
-      </c>
-      <c r="AH2">
-        <v>1.25</v>
-      </c>
-      <c r="AI2">
-        <v>1.25</v>
-      </c>
-      <c r="AJ2">
-        <v>1.25</v>
-      </c>
-      <c r="AK2">
-        <v>1.25</v>
-      </c>
-      <c r="AL2">
-        <v>1.25</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN2">
-        <v>1.25</v>
-      </c>
-      <c r="AO2">
-        <v>1.25</v>
-      </c>
-      <c r="AP2">
-        <v>1.25</v>
-      </c>
-      <c r="AQ2">
-        <v>1.25</v>
-      </c>
-      <c r="AR2">
-        <v>1.25</v>
-      </c>
-      <c r="AS2">
-        <v>1.25</v>
-      </c>
-      <c r="AT2">
-        <v>1.25</v>
-      </c>
-      <c r="AU2">
-        <v>1.25</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW2">
-        <v>1.25</v>
-      </c>
-      <c r="AX2">
-        <v>1.25</v>
-      </c>
-      <c r="AY2">
-        <v>1.25</v>
-      </c>
-      <c r="AZ2">
-        <v>1.25</v>
-      </c>
-      <c r="BA2">
-        <v>1.25</v>
-      </c>
-      <c r="BB2">
-        <v>1.25</v>
-      </c>
-      <c r="BC2">
-        <v>1.25</v>
-      </c>
-      <c r="BD2">
-        <v>1.25</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="BF3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:59" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AE3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1.25</v>
@@ -3653,7 +3432,7 @@
         <v>1.25</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="M4">
         <v>1.25</v>
@@ -3680,7 +3459,7 @@
         <v>1.25</v>
       </c>
       <c r="U4" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="V4">
         <v>1.25</v>
@@ -3706,100 +3485,22 @@
       <c r="AC4">
         <v>1.25</v>
       </c>
-      <c r="AD4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE4">
-        <v>1.25</v>
-      </c>
-      <c r="AF4">
-        <v>1.25</v>
-      </c>
-      <c r="AG4">
-        <v>1.25</v>
-      </c>
-      <c r="AH4">
-        <v>1.25</v>
-      </c>
-      <c r="AI4">
-        <v>1.25</v>
-      </c>
-      <c r="AJ4">
-        <v>1.25</v>
-      </c>
-      <c r="AK4">
-        <v>1.25</v>
-      </c>
-      <c r="AL4">
-        <v>1.25</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN4">
-        <v>1.25</v>
-      </c>
-      <c r="AO4">
-        <v>1.25</v>
-      </c>
-      <c r="AP4">
-        <v>1.25</v>
-      </c>
-      <c r="AQ4">
-        <v>1.25</v>
-      </c>
-      <c r="AR4">
-        <v>1.25</v>
-      </c>
-      <c r="AS4">
-        <v>1.25</v>
-      </c>
-      <c r="AT4">
-        <v>1.25</v>
-      </c>
-      <c r="AU4">
-        <v>1.25</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW4">
-        <v>1.25</v>
-      </c>
-      <c r="AX4">
-        <v>1.25</v>
-      </c>
-      <c r="AY4">
-        <v>1.25</v>
-      </c>
-      <c r="AZ4">
-        <v>1.25</v>
-      </c>
-      <c r="BA4">
-        <v>1.25</v>
-      </c>
-      <c r="BB4">
-        <v>1.25</v>
-      </c>
-      <c r="BC4">
-        <v>1.25</v>
-      </c>
-      <c r="BD4">
-        <v>1.25</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="AE4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3823,10 +3524,10 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="M5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3850,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -3876,89 +3577,8 @@
       <c r="AC5">
         <v>1</v>
       </c>
-      <c r="AD5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE5">
-        <v>2</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN5">
-        <v>3</v>
-      </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW5">
-        <v>2.5</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-      <c r="AY5">
-        <v>1</v>
-      </c>
-      <c r="AZ5">
-        <v>1</v>
-      </c>
-      <c r="BA5">
-        <v>1</v>
-      </c>
-      <c r="BB5">
-        <v>1</v>
-      </c>
-      <c r="BC5">
-        <v>1</v>
-      </c>
-      <c r="BD5">
-        <v>1</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>70</v>
+      <c r="AE5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3994,247 +3614,247 @@
   <sheetData>
     <row r="1" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="D2">
         <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="G2">
         <v>5000</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="G3">
         <v>-5000</v>
       </c>
       <c r="H3" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D4">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="D5">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="G5">
         <v>20000</v>
       </c>
       <c r="H5" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="K5" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="L5">
         <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="F7" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="G7">
         <v>500</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Q7" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4263,92 +3883,92 @@
   <sheetData>
     <row r="1" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -4357,116 +3977,116 @@
         <v>-700</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D4">
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D5">
         <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="L5">
         <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="Q8" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4502,66 +4122,66 @@
   <sheetData>
     <row r="1" spans="1:16" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="H2" s="30">
         <v>0</v>
@@ -4570,13 +4190,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="O2" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +4211,7 @@
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,16 +4227,16 @@
   <sheetData>
     <row r="1" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -4630,33 +4250,33 @@
     </row>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>75</v>
+        <v>317</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>77</v>
+        <v>317</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4667,10 +4287,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I5"/>
+  <dimension ref="B1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4680,19 +4300,19 @@
   <sheetData>
     <row r="1" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -4706,55 +4326,75 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>85</v>
+        <v>319</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>99</v>
+      </c>
+      <c r="D2" s="6">
+        <v>445544</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>87</v>
+      <c r="I3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>60</v>
       </c>
-      <c r="D4" s="6">
-        <v>282193</v>
+      <c r="F4" t="s">
+        <v>321</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="H5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4779,34 +4419,34 @@
   <sheetData>
     <row r="1" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
@@ -4823,37 +4463,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="I2">
         <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -4861,37 +4501,37 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="I3">
         <v>12</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4915,22 +4555,22 @@
   <sheetData>
     <row r="1" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -4944,13 +4584,13 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4976,10 +4616,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5002,10 +4642,10 @@
         <v>6.5</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -5019,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -5030,10 +4670,10 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -5047,10 +4687,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -5058,10 +4698,10 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -5075,10 +4715,10 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5091,8 +4731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5109,157 +4749,157 @@
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="9">
         <v>334</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
+        <v>83</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
+        <v>78</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="9">
         <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
+        <v>72</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
+        <v>67</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="9">
         <v>213</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5273,7 +4913,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5284,49 +4924,49 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="83.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D2">
         <v>334</v>
@@ -5341,21 +4981,21 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
+        <v>101</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
         <v>567</v>
@@ -5364,84 +5004,84 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
         <v>567</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
+        <v>67</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
         <v>567</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D7">
         <v>567</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
